--- a/applications/Brazil/Fortaleza_projections.xlsx
+++ b/applications/Brazil/Fortaleza_projections.xlsx
@@ -414,7 +414,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>97551</v>
+        <v>101574</v>
       </c>
       <c r="B4">
         <v>54850</v>
       </c>
       <c r="C4">
-        <v>187542</v>
+        <v>141115</v>
       </c>
       <c r="D4">
-        <v>2.436330751173885</v>
+        <v>2.536804950433478</v>
       </c>
       <c r="E4">
         <v>1.369888159703777</v>
       </c>
       <c r="F4">
-        <v>4.68385092655793</v>
+        <v>3.524351694162831</v>
       </c>
       <c r="G4">
-        <v>603000</v>
+        <v>579600</v>
       </c>
       <c r="H4">
         <v>342000</v>
       </c>
       <c r="I4">
-        <v>909000</v>
+        <v>616500</v>
       </c>
       <c r="J4">
-        <v>0.3937926890295441</v>
+        <v>0.3734517211056138</v>
       </c>
       <c r="K4">
         <v>0.3479319488171622</v>
       </c>
       <c r="L4">
-        <v>0.4170788033974032</v>
+        <v>0.3831923238459146</v>
       </c>
       <c r="M4">
-        <v>74371</v>
+        <v>82390</v>
       </c>
       <c r="N4">
         <v>50949</v>
       </c>
       <c r="O4">
-        <v>146056</v>
+        <v>161487</v>
       </c>
       <c r="P4">
-        <v>1.943815855115448</v>
+        <v>2.153405003407076</v>
       </c>
       <c r="Q4">
         <v>1.33163206338822</v>
       </c>
       <c r="R4">
-        <v>3.817415817116362</v>
+        <v>4.220716147919949</v>
       </c>
       <c r="S4">
-        <v>468104</v>
+        <v>513313</v>
       </c>
       <c r="T4">
         <v>324000</v>
       </c>
       <c r="U4">
-        <v>842023</v>
+        <v>866511</v>
       </c>
       <c r="V4">
-        <v>0.4254521766485903</v>
+        <v>0.4078270465603513</v>
       </c>
       <c r="W4">
         <v>0.3681161365308385</v>
       </c>
       <c r="X4">
-        <v>0.4779220687683746</v>
+        <v>0.4478615859467103</v>
       </c>
     </row>
   </sheetData>
